--- a/config_8.10/shoping_config_cjj.xlsx
+++ b/config_8.10/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5499" uniqueCount="1891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5543" uniqueCount="1900">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7140,12 +7140,48 @@
   <si>
     <t>爱心礼包</t>
   </si>
+  <si>
+    <t>十全十美</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非冲金鸡福袋礼包模板</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>百年好合</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>花好月圆</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>比翼双飞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海枯石烂</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>两情相悦</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>一见钟情</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7215,6 +7251,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="16">
@@ -7351,7 +7393,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7590,6 +7632,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10048,13 +10108,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AIG697"/>
+  <dimension ref="A1:AIG704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W658" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W685" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A671" sqref="A671:XFD682"/>
+      <selection pane="bottomRight" activeCell="A698" sqref="A698:XFD704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -60139,7 +60199,7 @@
       <c r="G655" s="76" t="s">
         <v>1881</v>
       </c>
-      <c r="H655" s="79" t="s">
+      <c r="H655" s="80" t="s">
         <v>1882</v>
       </c>
       <c r="K655" s="76" t="s">
@@ -60204,7 +60264,7 @@
       <c r="G656" s="76" t="s">
         <v>1883</v>
       </c>
-      <c r="H656" s="79"/>
+      <c r="H656" s="80"/>
       <c r="K656" s="76" t="s">
         <v>1608</v>
       </c>
@@ -60267,7 +60327,7 @@
       <c r="G657" s="76" t="s">
         <v>1884</v>
       </c>
-      <c r="H657" s="79"/>
+      <c r="H657" s="80"/>
       <c r="K657" s="76" t="s">
         <v>1609</v>
       </c>
@@ -60330,7 +60390,7 @@
       <c r="G658" s="76" t="s">
         <v>1885</v>
       </c>
-      <c r="H658" s="79"/>
+      <c r="H658" s="80"/>
       <c r="K658" s="76" t="s">
         <v>1611</v>
       </c>
@@ -60393,7 +60453,7 @@
       <c r="G659" s="76" t="s">
         <v>1886</v>
       </c>
-      <c r="H659" s="79"/>
+      <c r="H659" s="80"/>
       <c r="K659" s="76" t="s">
         <v>1612</v>
       </c>
@@ -60456,7 +60516,7 @@
       <c r="G660" s="76" t="s">
         <v>1887</v>
       </c>
-      <c r="H660" s="79"/>
+      <c r="H660" s="80"/>
       <c r="K660" s="76" t="s">
         <v>1613</v>
       </c>
@@ -60519,7 +60579,7 @@
       <c r="G661" s="76" t="s">
         <v>1888</v>
       </c>
-      <c r="H661" s="79"/>
+      <c r="H661" s="80"/>
       <c r="K661" s="76" t="s">
         <v>1615</v>
       </c>
@@ -62073,7 +62133,7 @@
       <c r="G683" s="75" t="s">
         <v>1646</v>
       </c>
-      <c r="H683" s="79" t="s">
+      <c r="H683" s="80" t="s">
         <v>1879</v>
       </c>
       <c r="K683" s="75" t="s">
@@ -62141,7 +62201,7 @@
       <c r="G684" s="75" t="s">
         <v>1646</v>
       </c>
-      <c r="H684" s="79"/>
+      <c r="H684" s="80"/>
       <c r="K684" s="75" t="s">
         <v>1575</v>
       </c>
@@ -62207,7 +62267,7 @@
       <c r="G685" s="75" t="s">
         <v>1646</v>
       </c>
-      <c r="H685" s="79"/>
+      <c r="H685" s="80"/>
       <c r="K685" s="75" t="s">
         <v>1577</v>
       </c>
@@ -62273,7 +62333,7 @@
       <c r="G686" s="75" t="s">
         <v>1646</v>
       </c>
-      <c r="H686" s="79"/>
+      <c r="H686" s="80"/>
       <c r="K686" s="75" t="s">
         <v>1579</v>
       </c>
@@ -62339,7 +62399,7 @@
       <c r="G687" s="75" t="s">
         <v>1646</v>
       </c>
-      <c r="H687" s="79"/>
+      <c r="H687" s="80"/>
       <c r="K687" s="75" t="s">
         <v>1581</v>
       </c>
@@ -62405,7 +62465,7 @@
       <c r="G688" s="75" t="s">
         <v>1646</v>
       </c>
-      <c r="H688" s="79"/>
+      <c r="H688" s="80"/>
       <c r="K688" s="75" t="s">
         <v>1583</v>
       </c>
@@ -62471,7 +62531,7 @@
       <c r="G689" s="75" t="s">
         <v>1648</v>
       </c>
-      <c r="H689" s="79" t="s">
+      <c r="H689" s="80" t="s">
         <v>1880</v>
       </c>
       <c r="K689" s="75" t="s">
@@ -62539,7 +62599,7 @@
       <c r="G690" s="75" t="s">
         <v>1648</v>
       </c>
-      <c r="H690" s="79"/>
+      <c r="H690" s="80"/>
       <c r="K690" s="75" t="s">
         <v>1650</v>
       </c>
@@ -62605,7 +62665,7 @@
       <c r="G691" s="75" t="s">
         <v>1648</v>
       </c>
-      <c r="H691" s="79"/>
+      <c r="H691" s="80"/>
       <c r="K691" s="75" t="s">
         <v>1651</v>
       </c>
@@ -62671,7 +62731,7 @@
       <c r="G692" s="75" t="s">
         <v>1648</v>
       </c>
-      <c r="H692" s="79"/>
+      <c r="H692" s="80"/>
       <c r="K692" s="75" t="s">
         <v>1652</v>
       </c>
@@ -62737,7 +62797,7 @@
       <c r="G693" s="75" t="s">
         <v>1648</v>
       </c>
-      <c r="H693" s="79"/>
+      <c r="H693" s="80"/>
       <c r="K693" s="75" t="s">
         <v>1653</v>
       </c>
@@ -62803,7 +62863,7 @@
       <c r="G694" s="75" t="s">
         <v>1648</v>
       </c>
-      <c r="H694" s="79"/>
+      <c r="H694" s="80"/>
       <c r="K694" s="75" t="s">
         <v>1654</v>
       </c>
@@ -63087,11 +63147,476 @@
         <v>1</v>
       </c>
     </row>
+    <row r="698" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A698" s="81">
+        <v>697</v>
+      </c>
+      <c r="B698" s="82">
+        <v>10614</v>
+      </c>
+      <c r="F698" s="83">
+        <v>1</v>
+      </c>
+      <c r="G698" s="83" t="s">
+        <v>1891</v>
+      </c>
+      <c r="H698" s="80" t="s">
+        <v>1892</v>
+      </c>
+      <c r="K698" s="83" t="s">
+        <v>1606</v>
+      </c>
+      <c r="M698" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N698" s="83">
+        <v>0</v>
+      </c>
+      <c r="O698" s="83" t="s">
+        <v>1893</v>
+      </c>
+      <c r="P698" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q698" s="83">
+        <v>99800</v>
+      </c>
+      <c r="R698" s="83" t="s">
+        <v>1607</v>
+      </c>
+      <c r="S698" s="84" t="s">
+        <v>1136</v>
+      </c>
+      <c r="X698" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y698" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z698" s="83">
+        <v>1628553600</v>
+      </c>
+      <c r="AA698" s="83">
+        <v>1629129599</v>
+      </c>
+      <c r="AB698" s="83">
+        <v>68</v>
+      </c>
+      <c r="AI698" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ698" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM698" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN698" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A699" s="81">
+        <v>698</v>
+      </c>
+      <c r="B699" s="82">
+        <v>10615</v>
+      </c>
+      <c r="F699" s="83">
+        <v>1</v>
+      </c>
+      <c r="G699" s="79" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H699" s="85"/>
+      <c r="K699" s="83" t="s">
+        <v>1608</v>
+      </c>
+      <c r="M699" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N699" s="83">
+        <v>0</v>
+      </c>
+      <c r="O699" s="83">
+        <v>0</v>
+      </c>
+      <c r="P699" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q699" s="83">
+        <v>49800</v>
+      </c>
+      <c r="R699" s="83" t="s">
+        <v>1607</v>
+      </c>
+      <c r="S699" s="84" t="s">
+        <v>1133</v>
+      </c>
+      <c r="X699" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y699" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z699" s="83">
+        <v>1628553600</v>
+      </c>
+      <c r="AA699" s="83">
+        <v>1629129599</v>
+      </c>
+      <c r="AB699" s="83">
+        <v>68</v>
+      </c>
+      <c r="AI699" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ699" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM699" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN699" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A700" s="81">
+        <v>699</v>
+      </c>
+      <c r="B700" s="82">
+        <v>10616</v>
+      </c>
+      <c r="F700" s="83">
+        <v>1</v>
+      </c>
+      <c r="G700" s="79" t="s">
+        <v>1895</v>
+      </c>
+      <c r="H700" s="85"/>
+      <c r="K700" s="83" t="s">
+        <v>1609</v>
+      </c>
+      <c r="M700" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N700" s="83">
+        <v>0</v>
+      </c>
+      <c r="O700" s="83">
+        <v>0</v>
+      </c>
+      <c r="P700" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q700" s="83">
+        <v>29800</v>
+      </c>
+      <c r="R700" s="83" t="s">
+        <v>1610</v>
+      </c>
+      <c r="S700" s="84" t="s">
+        <v>1129</v>
+      </c>
+      <c r="X700" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y700" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z700" s="83">
+        <v>1628553600</v>
+      </c>
+      <c r="AA700" s="83">
+        <v>1629129599</v>
+      </c>
+      <c r="AB700" s="83">
+        <v>68</v>
+      </c>
+      <c r="AI700" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ700" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM700" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN700" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A701" s="81">
+        <v>700</v>
+      </c>
+      <c r="B701" s="82">
+        <v>10617</v>
+      </c>
+      <c r="F701" s="83">
+        <v>1</v>
+      </c>
+      <c r="G701" s="79" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H701" s="85"/>
+      <c r="K701" s="83" t="s">
+        <v>1611</v>
+      </c>
+      <c r="M701" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N701" s="83">
+        <v>0</v>
+      </c>
+      <c r="O701" s="83">
+        <v>0</v>
+      </c>
+      <c r="P701" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q701" s="83">
+        <v>19800</v>
+      </c>
+      <c r="R701" s="83" t="s">
+        <v>1610</v>
+      </c>
+      <c r="S701" s="84" t="s">
+        <v>1126</v>
+      </c>
+      <c r="X701" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y701" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z701" s="83">
+        <v>1628553600</v>
+      </c>
+      <c r="AA701" s="83">
+        <v>1629129599</v>
+      </c>
+      <c r="AB701" s="83">
+        <v>68</v>
+      </c>
+      <c r="AI701" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ701" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM701" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN701" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A702" s="81">
+        <v>701</v>
+      </c>
+      <c r="B702" s="82">
+        <v>10618</v>
+      </c>
+      <c r="F702" s="83">
+        <v>1</v>
+      </c>
+      <c r="G702" s="79" t="s">
+        <v>1897</v>
+      </c>
+      <c r="H702" s="85"/>
+      <c r="K702" s="83" t="s">
+        <v>1612</v>
+      </c>
+      <c r="M702" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N702" s="83">
+        <v>0</v>
+      </c>
+      <c r="O702" s="83">
+        <v>0</v>
+      </c>
+      <c r="P702" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q702" s="83">
+        <v>9800</v>
+      </c>
+      <c r="R702" s="83" t="s">
+        <v>1610</v>
+      </c>
+      <c r="S702" s="84" t="s">
+        <v>1123</v>
+      </c>
+      <c r="X702" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y702" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z702" s="83">
+        <v>1628553600</v>
+      </c>
+      <c r="AA702" s="83">
+        <v>1629129599</v>
+      </c>
+      <c r="AB702" s="83">
+        <v>68</v>
+      </c>
+      <c r="AI702" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ702" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM702" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN702" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A703" s="81">
+        <v>702</v>
+      </c>
+      <c r="B703" s="82">
+        <v>10619</v>
+      </c>
+      <c r="F703" s="83">
+        <v>1</v>
+      </c>
+      <c r="G703" s="79" t="s">
+        <v>1898</v>
+      </c>
+      <c r="H703" s="85"/>
+      <c r="K703" s="83" t="s">
+        <v>1613</v>
+      </c>
+      <c r="M703" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N703" s="83">
+        <v>0</v>
+      </c>
+      <c r="O703" s="83">
+        <v>0</v>
+      </c>
+      <c r="P703" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q703" s="83">
+        <v>4800</v>
+      </c>
+      <c r="R703" s="83" t="s">
+        <v>1614</v>
+      </c>
+      <c r="S703" s="84" t="s">
+        <v>1119</v>
+      </c>
+      <c r="X703" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y703" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z703" s="83">
+        <v>1628553600</v>
+      </c>
+      <c r="AA703" s="83">
+        <v>1629129599</v>
+      </c>
+      <c r="AB703" s="83">
+        <v>68</v>
+      </c>
+      <c r="AI703" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ703" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM703" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN703" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:40" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A704" s="81">
+        <v>703</v>
+      </c>
+      <c r="B704" s="82">
+        <v>10620</v>
+      </c>
+      <c r="F704" s="83">
+        <v>1</v>
+      </c>
+      <c r="G704" s="79" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H704" s="85"/>
+      <c r="K704" s="83" t="s">
+        <v>1615</v>
+      </c>
+      <c r="M704" s="83">
+        <v>-31</v>
+      </c>
+      <c r="N704" s="83">
+        <v>0</v>
+      </c>
+      <c r="O704" s="83">
+        <v>0</v>
+      </c>
+      <c r="P704" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q704" s="83">
+        <v>1800</v>
+      </c>
+      <c r="R704" s="83" t="s">
+        <v>1614</v>
+      </c>
+      <c r="S704" s="84" t="s">
+        <v>1116</v>
+      </c>
+      <c r="X704" s="83" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y704" s="83">
+        <v>99999999</v>
+      </c>
+      <c r="Z704" s="83">
+        <v>1628553600</v>
+      </c>
+      <c r="AA704" s="83">
+        <v>1629129599</v>
+      </c>
+      <c r="AB704" s="83">
+        <v>68</v>
+      </c>
+      <c r="AI704" s="83">
+        <v>1</v>
+      </c>
+      <c r="AJ704" s="83">
+        <v>1</v>
+      </c>
+      <c r="AM704" s="83">
+        <v>1</v>
+      </c>
+      <c r="AN704" s="83">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H683:H688"/>
     <mergeCell ref="H689:H694"/>
     <mergeCell ref="H655:H661"/>
+    <mergeCell ref="H698:H704"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
